--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/实收资本.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/实收资本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>771.9821899999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2013.67005</v>
-      </c>
-      <c r="D2" t="n">
-        <v>277.57458</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.67359</v>
-      </c>
-      <c r="F2" t="n">
-        <v>234.26394</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2064.0566</v>
-      </c>
-      <c r="H2" t="n">
-        <v>498.47015</v>
-      </c>
-      <c r="I2" t="n">
-        <v>682.33116</v>
-      </c>
-      <c r="J2" t="n">
-        <v>299.09053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>647.94161</v>
-      </c>
-      <c r="L2" t="n">
-        <v>119.65907</v>
-      </c>
-      <c r="M2" t="n">
-        <v>174.859</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1214.67916</v>
-      </c>
-      <c r="O2" t="n">
-        <v>797.4211</v>
-      </c>
-      <c r="P2" t="n">
-        <v>144.38142</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>533.66161</v>
-      </c>
-      <c r="R2" t="n">
-        <v>205.5749</v>
-      </c>
-      <c r="S2" t="n">
-        <v>99.48932000000001</v>
-      </c>
-      <c r="T2" t="n">
-        <v>295.37785</v>
-      </c>
-      <c r="U2" t="n">
-        <v>330.46247</v>
-      </c>
-      <c r="V2" t="n">
-        <v>270.06451</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1033.5562</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4251.23079</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1715.73231</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1382.20932</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>262.32806</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>805.03551</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1706.96271</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1460.83062</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>550.39037</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>32940.44668</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>634.6433</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>765.8101</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1703.64572</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>191.83313</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>544.14275</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>769.6320899999999</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>727.29398</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2473.13132</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>128.91557</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>871.71581</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2330.33664</v>
-      </c>
-      <c r="D3" t="n">
-        <v>308.12803</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.48195</v>
-      </c>
-      <c r="F3" t="n">
-        <v>259.53388</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2434.63865</v>
-      </c>
-      <c r="H3" t="n">
-        <v>438.04631</v>
-      </c>
-      <c r="I3" t="n">
-        <v>808.30228</v>
-      </c>
-      <c r="J3" t="n">
-        <v>347.98283</v>
-      </c>
-      <c r="K3" t="n">
-        <v>747.7920800000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>129.83521</v>
-      </c>
-      <c r="M3" t="n">
-        <v>183.27488</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1307.1047</v>
-      </c>
-      <c r="O3" t="n">
-        <v>822.63344</v>
-      </c>
-      <c r="P3" t="n">
-        <v>140.3886</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>561.52853</v>
-      </c>
-      <c r="R3" t="n">
-        <v>246.14101</v>
-      </c>
-      <c r="S3" t="n">
-        <v>97.40157000000001</v>
-      </c>
-      <c r="T3" t="n">
-        <v>312.38971</v>
-      </c>
-      <c r="U3" t="n">
-        <v>341.96483</v>
-      </c>
-      <c r="V3" t="n">
-        <v>287.55464</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1223.77489</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4487.68967</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1984.41474</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1480.48501</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>292.86334</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1001.10708</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1857.72594</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1565.23</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>572.71554</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>36217.11408</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>717.00245</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>861.29164</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1837.42323</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>220.2838</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>595.95814</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>798.88039</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>772.59361</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2678.1138</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>134.96002</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>951.84104</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2550.16307</v>
-      </c>
-      <c r="D4" t="n">
-        <v>356.78462</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.77366</v>
-      </c>
-      <c r="F4" t="n">
-        <v>297.83206</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2699.9285</v>
-      </c>
-      <c r="H4" t="n">
-        <v>460.65894</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1002.67759</v>
-      </c>
-      <c r="J4" t="n">
-        <v>366.97224</v>
-      </c>
-      <c r="K4" t="n">
-        <v>859.06811</v>
-      </c>
-      <c r="L4" t="n">
-        <v>145.76751</v>
-      </c>
-      <c r="M4" t="n">
-        <v>213.31545</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1404.9831</v>
-      </c>
-      <c r="O4" t="n">
-        <v>858.56902</v>
-      </c>
-      <c r="P4" t="n">
-        <v>151.07555</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>618.68487</v>
-      </c>
-      <c r="R4" t="n">
-        <v>262.43561</v>
-      </c>
-      <c r="S4" t="n">
-        <v>96.16753</v>
-      </c>
-      <c r="T4" t="n">
-        <v>347.3145</v>
-      </c>
-      <c r="U4" t="n">
-        <v>341.84731</v>
-      </c>
-      <c r="V4" t="n">
-        <v>303.65716</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1598.13372</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4697.29245</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2362.56305</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1600.88831</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>326.26238</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1116.41963</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1839.51308</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1720.84235</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>617.9076</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>39155.63171</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>796.3865500000001</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>922.95904</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1976.41425</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>229.77556</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>660.16972</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>875.76633</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>829.07408</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2381.06566</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>147.65343</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
